--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
@@ -235,7 +235,7 @@
     <t xml:space="preserve">0.50</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167ADDE9-1724-4E8F-8848-3E8B4DA7B660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C033EB-2B1F-4F83-98C5-E521DC822981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -294,7 +294,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C033EB-2B1F-4F83-98C5-E521DC822981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA1091-96E3-4C32-9F07-7E68E3CCB570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA1091-96E3-4C32-9F07-7E68E3CCB570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C37ABDA-DFB2-4602-A639-FBC344C51D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>contractNo</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -658,7 +661,7 @@
   <dimension ref="A1:BU1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,7 +955,7 @@
         <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>71</v>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C37ABDA-DFB2-4602-A639-FBC344C51D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41993DB6-882F-43F1-ADC1-F8A677B796DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,10 +294,10 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -952,10 +952,10 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>71</v>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F51C815-D188-4A51-9657-6AB801499F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BDCA87-68D5-41ED-84B6-2B13307EAC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual" refMode="R1C1"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -297,7 +297,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BDCA87-68D5-41ED-84B6-2B13307EAC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AD1C6A-567A-4E25-9182-51989B820C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -361,9 +361,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,7 +401,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -507,7 +507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED06DCA-DCF0-4B4C-B804-8E23E9AB2DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1844C0-2347-4BBD-AB7B-015F1F1BCCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -361,9 +361,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,7 +401,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -507,7 +507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1844C0-2347-4BBD-AB7B-015F1F1BCCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B3EC0-D2DD-4884-8CE2-A3A68EE2452F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>contractNo</t>
   </si>
@@ -297,7 +297,13 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -660,8 +666,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BU1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BJ10" sqref="BJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +958,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
@@ -1049,6 +1055,12 @@
       </c>
       <c r="BE2" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>88</v>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B3EC0-D2DD-4884-8CE2-A3A68EE2452F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD440A-FC07-46F8-B403-A38112BEC8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
